--- a/fusion_results_new.xlsx
+++ b/fusion_results_new.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akahmad/Documents/DiskANN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6A29C-AB3E-3D46-A223-2D4A91FA71B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2256E4-64B7-5D47-9DD3-358D083A0E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="k=20" sheetId="4" r:id="rId1"/>
-    <sheet name="k=10" sheetId="1" r:id="rId2"/>
+    <sheet name="k=10 fused" sheetId="5" r:id="rId1"/>
+    <sheet name="k=20" sheetId="4" r:id="rId2"/>
+    <sheet name="k=10" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'k=10'!$A$1:$L$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'k=20'!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'k=10'!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'k=10 fused'!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'k=20'!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="85">
   <si>
     <t>dataset</t>
   </si>
@@ -285,6 +287,17 @@
   <si>
     <t>    1659.46</t>
   </si>
+  <si>
+    <t>distance 
+metric</t>
+  </si>
+  <si>
+    <t>supervised 
+percentage</t>
+  </si>
+  <si>
+    <t>efConst</t>
+  </si>
 </sst>
 </file>
 
@@ -371,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,11 +689,2598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B9235E-98FA-2849-8205-F141B0A1D3F1}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5">
+        <v>200</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
+        <v>28434.880000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>72.88</v>
+      </c>
+      <c r="L2" s="1">
+        <v>84.66</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1">
+        <v>16741.349999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>73.28</v>
+      </c>
+      <c r="L3" s="1">
+        <v>92.32</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9036.01</v>
+      </c>
+      <c r="K4" s="1">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>97.32</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5597.91</v>
+      </c>
+      <c r="K5" s="1">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="L5" s="1">
+        <v>98.77</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1">
+        <v>79623.14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>89.31</v>
+      </c>
+      <c r="L6" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>54583.44</v>
+      </c>
+      <c r="K7" s="1">
+        <v>90.88</v>
+      </c>
+      <c r="L7" s="1">
+        <v>90.72</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30928.38</v>
+      </c>
+      <c r="K8" s="1">
+        <v>92.23</v>
+      </c>
+      <c r="L8" s="1">
+        <v>96.02</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19597.759999999998</v>
+      </c>
+      <c r="K9" s="1">
+        <v>92.9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>97.94</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>95123.69</v>
+      </c>
+      <c r="K10" s="1">
+        <v>91.26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1">
+        <v>66993.62</v>
+      </c>
+      <c r="K11" s="1">
+        <v>92.96</v>
+      </c>
+      <c r="L11" s="1">
+        <v>91.55</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1">
+        <v>38604.370000000003</v>
+      </c>
+      <c r="K12" s="1">
+        <v>94.42</v>
+      </c>
+      <c r="L12" s="1">
+        <v>96.55</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1">
+        <v>24336.63</v>
+      </c>
+      <c r="K13" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="L13" s="1">
+        <v>98.35</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>18012.990000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="L14" s="1">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
+        <v>200</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>11662.02</v>
+      </c>
+      <c r="K15" s="1">
+        <v>79.52</v>
+      </c>
+      <c r="L15" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5">
+        <v>200</v>
+      </c>
+      <c r="F16" s="7">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5346.68</v>
+      </c>
+      <c r="K16" s="1">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="L16" s="1">
+        <v>96.47</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2709.3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>80.45</v>
+      </c>
+      <c r="L17" s="1">
+        <v>98.55</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <v>41954.400000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="L18" s="1">
+        <v>84.87</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>27146.98</v>
+      </c>
+      <c r="K19" s="1">
+        <v>73.47</v>
+      </c>
+      <c r="L19" s="1">
+        <v>92.52</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1">
+        <v>15006.77</v>
+      </c>
+      <c r="K20" s="1">
+        <v>73.59</v>
+      </c>
+      <c r="L20" s="1">
+        <v>97.31</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9240.44</v>
+      </c>
+      <c r="K21" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="L21" s="1">
+        <v>98.83</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>62360.23</v>
+      </c>
+      <c r="K22" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="L22" s="1">
+        <v>83.58</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44246.38</v>
+      </c>
+      <c r="K23" s="1">
+        <v>90.69</v>
+      </c>
+      <c r="L23" s="1">
+        <v>90.56</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5">
+        <v>20</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25121.119999999999</v>
+      </c>
+      <c r="K24" s="1">
+        <v>92.25</v>
+      </c>
+      <c r="L24" s="1">
+        <v>96.08</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="7">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1">
+        <v>16482.72</v>
+      </c>
+      <c r="K25" s="1">
+        <v>92.94</v>
+      </c>
+      <c r="L25" s="1">
+        <v>98.03</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1">
+        <v>94196.32</v>
+      </c>
+      <c r="K26" s="1">
+        <v>91.02</v>
+      </c>
+      <c r="L26" s="1">
+        <v>84.46</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5">
+        <v>200</v>
+      </c>
+      <c r="F27" s="7">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5">
+        <v>20</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1">
+        <v>67013.39</v>
+      </c>
+      <c r="K27" s="1">
+        <v>92.78</v>
+      </c>
+      <c r="L27" s="1">
+        <v>91.33</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5">
+        <v>20</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1">
+        <v>38467.120000000003</v>
+      </c>
+      <c r="K28" s="1">
+        <v>94.35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>96.28</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5">
+        <v>32</v>
+      </c>
+      <c r="E29" s="5">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5">
+        <v>20</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>24111.69</v>
+      </c>
+      <c r="K29" s="1">
+        <v>95.12</v>
+      </c>
+      <c r="L29" s="1">
+        <v>98.25</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>32</v>
+      </c>
+      <c r="E30" s="5">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1">
+        <v>17362.04</v>
+      </c>
+      <c r="K30" s="1">
+        <v>77.66</v>
+      </c>
+      <c r="L30" s="1">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5">
+        <v>32</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7">
+        <v>20</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1">
+        <v>11145.65</v>
+      </c>
+      <c r="K31" s="1">
+        <v>79.38</v>
+      </c>
+      <c r="L31" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5">
+        <v>200</v>
+      </c>
+      <c r="F32" s="7">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6071.84</v>
+      </c>
+      <c r="K32" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="L32" s="1">
+        <v>96.34</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5">
+        <v>200</v>
+      </c>
+      <c r="F33" s="7">
+        <v>100</v>
+      </c>
+      <c r="G33" s="5">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5">
+        <v>20</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3773.44</v>
+      </c>
+      <c r="K33" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="L33" s="1">
+        <v>98.52</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5">
+        <v>50</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1">
+        <v>41525.440000000002</v>
+      </c>
+      <c r="K34" s="1">
+        <v>73.39</v>
+      </c>
+      <c r="L34" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5">
+        <v>200</v>
+      </c>
+      <c r="F35" s="7">
+        <v>20</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5">
+        <v>50</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1">
+        <v>27365.51</v>
+      </c>
+      <c r="K35" s="1">
+        <v>73.75</v>
+      </c>
+      <c r="L35" s="1">
+        <v>92.22</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5">
+        <v>200</v>
+      </c>
+      <c r="F36" s="7">
+        <v>50</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>50</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="1">
+        <v>14303.04</v>
+      </c>
+      <c r="K36" s="1">
+        <v>73.75</v>
+      </c>
+      <c r="L36" s="1">
+        <v>97.23</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5">
+        <v>32</v>
+      </c>
+      <c r="E37" s="5">
+        <v>200</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5">
+        <v>50</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9023.0400000000009</v>
+      </c>
+      <c r="K37" s="1">
+        <v>73.72</v>
+      </c>
+      <c r="L37" s="1">
+        <v>98.74</v>
+      </c>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5">
+        <v>200</v>
+      </c>
+      <c r="F38" s="7">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>50</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1">
+        <v>78747.199999999997</v>
+      </c>
+      <c r="K38" s="1">
+        <v>88.15</v>
+      </c>
+      <c r="L38" s="1">
+        <v>82.28</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7">
+        <v>20</v>
+      </c>
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5">
+        <v>50</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="1">
+        <v>54165.39</v>
+      </c>
+      <c r="K39" s="1">
+        <v>90.02</v>
+      </c>
+      <c r="L39" s="1">
+        <v>89.64</v>
+      </c>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5">
+        <v>200</v>
+      </c>
+      <c r="F40" s="7">
+        <v>50</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5">
+        <v>50</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1">
+        <v>30940.86</v>
+      </c>
+      <c r="K40" s="1">
+        <v>91.96</v>
+      </c>
+      <c r="L40" s="1">
+        <v>95.61</v>
+      </c>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5">
+        <v>200</v>
+      </c>
+      <c r="F41" s="7">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5">
+        <v>50</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1">
+        <v>19512.169999999998</v>
+      </c>
+      <c r="K41" s="1">
+        <v>92.67</v>
+      </c>
+      <c r="L41" s="1">
+        <v>97.62</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="5">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5">
+        <v>200</v>
+      </c>
+      <c r="F42" s="7">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5">
+        <v>50</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="1">
+        <v>94410.71</v>
+      </c>
+      <c r="K42" s="1">
+        <v>89.55</v>
+      </c>
+      <c r="L42" s="1">
+        <v>82.58</v>
+      </c>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5">
+        <v>32</v>
+      </c>
+      <c r="E43" s="5">
+        <v>200</v>
+      </c>
+      <c r="F43" s="7">
+        <v>20</v>
+      </c>
+      <c r="G43" s="5">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5">
+        <v>50</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1">
+        <v>65942.559999999998</v>
+      </c>
+      <c r="K43" s="1">
+        <v>91.76</v>
+      </c>
+      <c r="L43" s="1">
+        <v>89.98</v>
+      </c>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="5">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5">
+        <v>200</v>
+      </c>
+      <c r="F44" s="7">
+        <v>50</v>
+      </c>
+      <c r="G44" s="5">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5">
+        <v>50</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1">
+        <v>38538.589999999997</v>
+      </c>
+      <c r="K44" s="1">
+        <v>93.74</v>
+      </c>
+      <c r="L44" s="1">
+        <v>95.47</v>
+      </c>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5">
+        <v>200</v>
+      </c>
+      <c r="F45" s="7">
+        <v>100</v>
+      </c>
+      <c r="G45" s="5">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5">
+        <v>50</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1">
+        <v>24263.77</v>
+      </c>
+      <c r="K45" s="1">
+        <v>94.72</v>
+      </c>
+      <c r="L45" s="1">
+        <v>97.65</v>
+      </c>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5">
+        <v>200</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5">
+        <v>50</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1">
+        <v>17981.91</v>
+      </c>
+      <c r="K46" s="1">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="L46" s="1">
+        <v>79.83</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5">
+        <v>32</v>
+      </c>
+      <c r="E47" s="5">
+        <v>200</v>
+      </c>
+      <c r="F47" s="7">
+        <v>20</v>
+      </c>
+      <c r="G47" s="5">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5">
+        <v>50</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1">
+        <v>11675.74</v>
+      </c>
+      <c r="K47" s="1">
+        <v>79.72</v>
+      </c>
+      <c r="L47" s="1">
+        <v>89.03</v>
+      </c>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5">
+        <v>200</v>
+      </c>
+      <c r="F48" s="7">
+        <v>50</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5">
+        <v>50</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6466.06</v>
+      </c>
+      <c r="K48" s="1">
+        <v>80.47</v>
+      </c>
+      <c r="L48" s="1">
+        <v>96.02</v>
+      </c>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5">
+        <v>200</v>
+      </c>
+      <c r="F49" s="7">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5">
+        <v>10</v>
+      </c>
+      <c r="H49" s="5">
+        <v>50</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3952.85</v>
+      </c>
+      <c r="K49" s="1">
+        <v>80.63</v>
+      </c>
+      <c r="L49" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5">
+        <v>32</v>
+      </c>
+      <c r="E50" s="5">
+        <v>200</v>
+      </c>
+      <c r="F50" s="7">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5">
+        <v>100</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="1">
+        <v>62994.82</v>
+      </c>
+      <c r="K50" s="1">
+        <v>37.47</v>
+      </c>
+      <c r="L50" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5">
+        <v>32</v>
+      </c>
+      <c r="E51" s="5">
+        <v>200</v>
+      </c>
+      <c r="F51" s="7">
+        <v>20</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5">
+        <v>100</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1">
+        <v>41293.97</v>
+      </c>
+      <c r="K51" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L51" s="1">
+        <v>36.96</v>
+      </c>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5">
+        <v>32</v>
+      </c>
+      <c r="E52" s="5">
+        <v>200</v>
+      </c>
+      <c r="F52" s="7">
+        <v>50</v>
+      </c>
+      <c r="G52" s="5">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5">
+        <v>100</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1">
+        <v>21740.09</v>
+      </c>
+      <c r="K52" s="1">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="L52" s="1">
+        <v>40.67</v>
+      </c>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5">
+        <v>32</v>
+      </c>
+      <c r="E53" s="5">
+        <v>200</v>
+      </c>
+      <c r="F53" s="7">
+        <v>100</v>
+      </c>
+      <c r="G53" s="5">
+        <v>10</v>
+      </c>
+      <c r="H53" s="5">
+        <v>100</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1">
+        <v>12583.36</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44.48</v>
+      </c>
+      <c r="L53" s="1">
+        <v>45.54</v>
+      </c>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="5">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5">
+        <v>200</v>
+      </c>
+      <c r="F54" s="7">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5">
+        <v>10</v>
+      </c>
+      <c r="H54" s="5">
+        <v>100</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="1">
+        <v>93268.35</v>
+      </c>
+      <c r="K54" s="1">
+        <v>62.81</v>
+      </c>
+      <c r="L54" s="1">
+        <v>56.42</v>
+      </c>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="5">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5">
+        <v>200</v>
+      </c>
+      <c r="F55" s="7">
+        <v>20</v>
+      </c>
+      <c r="G55" s="5">
+        <v>10</v>
+      </c>
+      <c r="H55" s="5">
+        <v>100</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1">
+        <v>64190.64</v>
+      </c>
+      <c r="K55" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="L55" s="1">
+        <v>60.39</v>
+      </c>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="5">
+        <v>32</v>
+      </c>
+      <c r="E56" s="5">
+        <v>200</v>
+      </c>
+      <c r="F56" s="7">
+        <v>50</v>
+      </c>
+      <c r="G56" s="5">
+        <v>10</v>
+      </c>
+      <c r="H56" s="5">
+        <v>100</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1">
+        <v>34567.050000000003</v>
+      </c>
+      <c r="K56" s="1">
+        <v>65.53</v>
+      </c>
+      <c r="L56" s="1">
+        <v>64.58</v>
+      </c>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="5">
+        <v>32</v>
+      </c>
+      <c r="E57" s="5">
+        <v>200</v>
+      </c>
+      <c r="F57" s="7">
+        <v>100</v>
+      </c>
+      <c r="G57" s="5">
+        <v>10</v>
+      </c>
+      <c r="H57" s="5">
+        <v>100</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1">
+        <v>20452.09</v>
+      </c>
+      <c r="K57" s="1">
+        <v>68.34</v>
+      </c>
+      <c r="L57" s="1">
+        <v>68.19</v>
+      </c>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="5">
+        <v>32</v>
+      </c>
+      <c r="E58" s="5">
+        <v>200</v>
+      </c>
+      <c r="F58" s="7">
+        <v>10</v>
+      </c>
+      <c r="G58" s="5">
+        <v>10</v>
+      </c>
+      <c r="H58" s="5">
+        <v>100</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="1">
+        <v>6027.57</v>
+      </c>
+      <c r="K58" s="1">
+        <v>72.48</v>
+      </c>
+      <c r="L58" s="1">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="5">
+        <v>32</v>
+      </c>
+      <c r="E59" s="5">
+        <v>200</v>
+      </c>
+      <c r="F59" s="7">
+        <v>20</v>
+      </c>
+      <c r="G59" s="5">
+        <v>10</v>
+      </c>
+      <c r="H59" s="5">
+        <v>100</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="1">
+        <v>72903.19</v>
+      </c>
+      <c r="K59" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="L59" s="1">
+        <v>69.59</v>
+      </c>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="5">
+        <v>32</v>
+      </c>
+      <c r="E60" s="5">
+        <v>200</v>
+      </c>
+      <c r="F60" s="7">
+        <v>50</v>
+      </c>
+      <c r="G60" s="5">
+        <v>10</v>
+      </c>
+      <c r="H60" s="5">
+        <v>100</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="1">
+        <v>40884.74</v>
+      </c>
+      <c r="K60" s="1">
+        <v>73.59</v>
+      </c>
+      <c r="L60" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="5">
+        <v>32</v>
+      </c>
+      <c r="E61" s="5">
+        <v>200</v>
+      </c>
+      <c r="F61" s="7">
+        <v>100</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10</v>
+      </c>
+      <c r="H61" s="5">
+        <v>100</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="1">
+        <v>25186.95</v>
+      </c>
+      <c r="K61" s="1">
+        <v>74.59</v>
+      </c>
+      <c r="L61" s="1">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5">
+        <v>32</v>
+      </c>
+      <c r="E62" s="5">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="G62" s="5">
+        <v>10</v>
+      </c>
+      <c r="H62" s="5">
+        <v>100</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1">
+        <v>23133.85</v>
+      </c>
+      <c r="K62" s="1">
+        <v>37.79</v>
+      </c>
+      <c r="L62" s="1">
+        <v>33.85</v>
+      </c>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5">
+        <v>32</v>
+      </c>
+      <c r="E63" s="5">
+        <v>200</v>
+      </c>
+      <c r="F63" s="7">
+        <v>20</v>
+      </c>
+      <c r="G63" s="5">
+        <v>10</v>
+      </c>
+      <c r="H63" s="5">
+        <v>100</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1">
+        <v>14748.4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="L63" s="1">
+        <v>36.96</v>
+      </c>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5">
+        <v>200</v>
+      </c>
+      <c r="F64" s="7">
+        <v>50</v>
+      </c>
+      <c r="G64" s="5">
+        <v>10</v>
+      </c>
+      <c r="H64" s="5">
+        <v>100</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1">
+        <v>7824.16</v>
+      </c>
+      <c r="K64" s="1">
+        <v>40.81</v>
+      </c>
+      <c r="L64" s="1">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5">
+        <v>32</v>
+      </c>
+      <c r="E65" s="5">
+        <v>200</v>
+      </c>
+      <c r="F65" s="7">
+        <v>100</v>
+      </c>
+      <c r="G65" s="5">
+        <v>10</v>
+      </c>
+      <c r="H65" s="5">
+        <v>100</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4773.34</v>
+      </c>
+      <c r="K65" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="L65" s="1">
+        <v>43.94</v>
+      </c>
+      <c r="P65" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L65" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD7D8C6-4159-BD4B-8422-DA637D25E498}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3324,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z65"/>
